--- a/biology/Histoire de la zoologie et de la botanique/Otto_Bremer_(naturaliste)/Otto_Bremer_(naturaliste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Otto_Bremer_(naturaliste)/Otto_Bremer_(naturaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Vassilievitch Bremer (1812-11 novembre 1873) est un naturaliste et entomologiste allemand, sujet de l'Empire russe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il publia Neue Lepidopteren aus Ost-Sibirien und dem Amur Lande, gesammelt von Radde und Maack, beschrieben von Otto Bremer. Bull. Sci. Acad. Sci. St.Petersbourg, 3(7): 461-496 (1861) et Lepidopteren Ost-Sibiriens (East Siberia), insbesondere der Amur-Landes, gesammelt von den Herren G.Radde, R.Maack und P.Wulfius. Mem. de l'Acad. imp. des Sci. St.-Petersbourg, 7 ser., 8(1): 103 p (1864).
 La collection de Bremer est conservée au Muséum de l'Académie des sciences de Saint-Pétersbourg où il vivait.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anonym 1874: [Bremer, O.] Horae Soc. Ent. Ross. 10(1873).
 Notices d'autorité : VIAF ISNI LCCN GND Pays-Bas NUKAT WorldCat 
